--- a/TNCount.xlsx
+++ b/TNCount.xlsx
@@ -134,6 +134,936 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>1</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>4</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>6</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>7</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="8" name="Image 8" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>9</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="9" name="Image 9" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>10</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="10" name="Image 10" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>11</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="11" name="Image 11" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="12" name="Image 12" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>13</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="13" name="Image 13" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="14" name="Image 14" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>15</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="15" name="Image 15" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>16</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="16" name="Image 16" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>17</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="17" name="Image 17" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>18</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="18" name="Image 18" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>19</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="19" name="Image 19" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>20</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="20" name="Image 20" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>21</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="21" name="Image 21" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>22</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="22" name="Image 22" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>23</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="23" name="Image 23" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>24</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="24" name="Image 24" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>25</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="25" name="Image 25" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>26</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="26" name="Image 26" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>27</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="27" name="Image 27" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>28</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="28" name="Image 28" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>29</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="29" name="Image 29" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId29"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>30</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="30" name="Image 30" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId30"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>31</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="31" name="Image 31" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId31"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>32</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="32" name="Image 32" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId32"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>33</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="33" name="Image 33" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId33"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>34</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="34" name="Image 34" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>35</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="35" name="Image 35" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>36</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="36" name="Image 36" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId36"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>37</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="228600" cy="228600"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="37" name="Image 37" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId37"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -4516,5 +5446,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TNCount.xlsx
+++ b/TNCount.xlsx
@@ -29,12 +29,24 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D3D3D3"/>
+        <bgColor rgb="00D3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00EFEFEF"/>
+        <bgColor rgb="00EFEFEF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,11 +67,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1364,307 +1384,159 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Power piece</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Power gem</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Power potion</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Power card</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Power deck</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Pulse book [Sword]</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Continental badge [Sword]</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Guard piece</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Guard gem</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Guard potion</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Guard card</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Guard deck</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Pulse book [Shield]</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Continental badge [Shield]</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Red potion</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Blue potion</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Life potion</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>Heavenly potion</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Drop of dream ocean</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Immortal potion</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Continental potion</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>Eternal potion</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Yellow key</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Blue key</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Crimson key</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Violet key</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>Platinum key</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>Winner's key</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Glory key</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>Return key</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>Old mattock</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>Mattock</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>Super mattock</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>Hyper mattock</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>Reverse orb</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>Golden feather 30%</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>Life crown 30%</t>
-        </is>
-      </c>
+      <c r="B1" s="1" t="inlineStr"/>
+      <c r="C1" s="1" t="inlineStr"/>
+      <c r="D1" s="1" t="inlineStr"/>
+      <c r="E1" s="1" t="inlineStr"/>
+      <c r="F1" s="1" t="inlineStr"/>
+      <c r="G1" s="1" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr"/>
+      <c r="I1" s="1" t="inlineStr"/>
+      <c r="J1" s="1" t="inlineStr"/>
+      <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr"/>
+      <c r="O1" s="1" t="inlineStr"/>
+      <c r="P1" s="1" t="inlineStr"/>
+      <c r="Q1" s="1" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr"/>
+      <c r="S1" s="1" t="inlineStr"/>
+      <c r="T1" s="1" t="inlineStr"/>
+      <c r="U1" s="1" t="inlineStr"/>
+      <c r="V1" s="1" t="inlineStr"/>
+      <c r="W1" s="1" t="inlineStr"/>
+      <c r="X1" s="1" t="inlineStr"/>
+      <c r="Y1" s="1" t="inlineStr"/>
+      <c r="Z1" s="1" t="inlineStr"/>
+      <c r="AA1" s="1" t="inlineStr"/>
+      <c r="AB1" s="1" t="inlineStr"/>
+      <c r="AC1" s="1" t="inlineStr"/>
+      <c r="AD1" s="1" t="inlineStr"/>
+      <c r="AE1" s="1" t="inlineStr"/>
+      <c r="AF1" s="1" t="inlineStr"/>
+      <c r="AG1" s="1" t="inlineStr"/>
+      <c r="AH1" s="1" t="inlineStr"/>
+      <c r="AI1" s="1" t="inlineStr"/>
+      <c r="AJ1" s="1" t="inlineStr"/>
+      <c r="AK1" s="1" t="inlineStr"/>
+      <c r="AL1" s="1" t="inlineStr"/>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" s="3" t="n">
         <v>164</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="3" t="n">
         <v>134</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" s="3" t="n">
         <v>143</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2" s="3" t="n">
         <v>166</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2" s="3" t="n">
         <v>146</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2" s="3" t="n">
         <v>121</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2" s="3" t="n">
         <v>132</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" s="3" t="n">
         <v>95</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2" s="3" t="n">
         <v>156</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2" s="3" t="n">
         <v>168</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2" s="3" t="n">
         <v>301</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2" s="3" t="n">
         <v>86</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2" s="3" t="n">
         <v>38</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
+      <c r="AD2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2" s="3" t="n">
         <v>26</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="AJ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK2" t="n">
+      <c r="AJ2" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3" t="n">
         <v>39</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2" s="3" t="n">
         <v>33</v>
       </c>
     </row>
@@ -4147,238 +4019,238 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
+      <c r="A24" s="4" t="inlineStr">
         <is>
           <t>M1F</t>
         </is>
       </c>
-      <c r="B24" t="n">
-        <v>0</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>1</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>2</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL24" t="n">
+      <c r="B24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="5" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+      <c r="A25" s="4" t="inlineStr">
         <is>
           <t>M2F</t>
         </is>
       </c>
-      <c r="B25" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
+      <c r="B25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="U25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" s="5" t="n">
         <v>4</v>
       </c>
-      <c r="W25" t="n">
-        <v>2</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL25" t="n">
+      <c r="W25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="X25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL25" s="5" t="n">
         <v>2</v>
       </c>
     </row>
